--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>133.9646796666667</v>
+        <v>91.34108066666666</v>
       </c>
       <c r="H2">
-        <v>401.894039</v>
+        <v>274.023242</v>
       </c>
       <c r="I2">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302001</v>
       </c>
       <c r="J2">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3326186666666667</v>
+        <v>0.1575256666666667</v>
       </c>
       <c r="N2">
-        <v>0.9978560000000001</v>
+        <v>0.472577</v>
       </c>
       <c r="O2">
-        <v>0.3213922220876632</v>
+        <v>0.6985926944284299</v>
       </c>
       <c r="P2">
-        <v>0.3213922220876632</v>
+        <v>0.69859269442843</v>
       </c>
       <c r="Q2">
-        <v>44.55915313115378</v>
+        <v>14.38856462607044</v>
       </c>
       <c r="R2">
-        <v>401.032378180384</v>
+        <v>129.497081634634</v>
       </c>
       <c r="S2">
-        <v>0.08983328538758394</v>
+        <v>0.1530151657211964</v>
       </c>
       <c r="T2">
-        <v>0.08983328538758394</v>
+        <v>0.1530151657211964</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,46 +596,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>133.9646796666667</v>
+        <v>91.34108066666666</v>
       </c>
       <c r="H3">
-        <v>401.894039</v>
+        <v>274.023242</v>
       </c>
       <c r="I3">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302001</v>
       </c>
       <c r="J3">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.702312</v>
+        <v>0.06796433333333333</v>
       </c>
       <c r="N3">
-        <v>2.106936</v>
+        <v>0.203893</v>
       </c>
       <c r="O3">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="P3">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="Q3">
-        <v>94.085002106056</v>
+        <v>6.207935653456222</v>
       </c>
       <c r="R3">
-        <v>846.7650189545039</v>
+        <v>55.87142088110599</v>
       </c>
       <c r="S3">
-        <v>0.1896796561641906</v>
+        <v>0.06601828100900362</v>
       </c>
       <c r="T3">
-        <v>0.1896796561641906</v>
+        <v>0.0660182810090036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>276.4348856666667</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H4">
-        <v>829.3046570000001</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I4">
-        <v>0.5767723868147631</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="J4">
-        <v>0.5767723868147629</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3326186666666667</v>
+        <v>0.1575256666666667</v>
       </c>
       <c r="N4">
-        <v>0.9978560000000001</v>
+        <v>0.472577</v>
       </c>
       <c r="O4">
-        <v>0.3213922220876632</v>
+        <v>0.6985926944284299</v>
       </c>
       <c r="P4">
-        <v>0.3213922220876632</v>
+        <v>0.69859269442843</v>
       </c>
       <c r="Q4">
-        <v>91.94740309059914</v>
+        <v>43.54558965456544</v>
       </c>
       <c r="R4">
-        <v>827.5266278153922</v>
+        <v>391.910306891089</v>
       </c>
       <c r="S4">
-        <v>0.1853701590372019</v>
+        <v>0.4630854981425807</v>
       </c>
       <c r="T4">
-        <v>0.1853701590372019</v>
+        <v>0.4630854981425808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>276.4348856666667</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H5">
-        <v>829.3046570000001</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I5">
-        <v>0.5767723868147631</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="J5">
-        <v>0.5767723868147629</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.702312</v>
+        <v>0.06796433333333333</v>
       </c>
       <c r="N5">
-        <v>2.106936</v>
+        <v>0.203893</v>
       </c>
       <c r="O5">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="P5">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="Q5">
-        <v>194.1435374223281</v>
+        <v>18.78771271441122</v>
       </c>
       <c r="R5">
-        <v>1747.291836800952</v>
+        <v>169.089414429701</v>
       </c>
       <c r="S5">
-        <v>0.3914022277775612</v>
+        <v>0.1997978984859297</v>
       </c>
       <c r="T5">
-        <v>0.3914022277775611</v>
+        <v>0.1997978984859297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>68.87942233333334</v>
+        <v>49.24290466666667</v>
       </c>
       <c r="H6">
-        <v>206.638267</v>
+        <v>147.728714</v>
       </c>
       <c r="I6">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="J6">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3326186666666667</v>
+        <v>0.1575256666666667</v>
       </c>
       <c r="N6">
-        <v>0.9978560000000001</v>
+        <v>0.472577</v>
       </c>
       <c r="O6">
-        <v>0.3213922220876632</v>
+        <v>0.6985926944284299</v>
       </c>
       <c r="P6">
-        <v>0.3213922220876632</v>
+        <v>0.69859269442843</v>
       </c>
       <c r="Q6">
-        <v>22.91058161728356</v>
+        <v>7.757021386219779</v>
       </c>
       <c r="R6">
-        <v>206.195234555552</v>
+        <v>69.813192475978</v>
       </c>
       <c r="S6">
-        <v>0.04618877766287738</v>
+        <v>0.08249203056465274</v>
       </c>
       <c r="T6">
-        <v>0.04618877766287738</v>
+        <v>0.08249203056465274</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>68.87942233333334</v>
+        <v>49.24290466666667</v>
       </c>
       <c r="H7">
-        <v>206.638267</v>
+        <v>147.728714</v>
       </c>
       <c r="I7">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="J7">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.702312</v>
+        <v>0.06796433333333333</v>
       </c>
       <c r="N7">
-        <v>2.106936</v>
+        <v>0.203893</v>
       </c>
       <c r="O7">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="P7">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="Q7">
-        <v>48.374844857768</v>
+        <v>3.346761187066889</v>
       </c>
       <c r="R7">
-        <v>435.3736037199121</v>
+        <v>30.120850683602</v>
       </c>
       <c r="S7">
-        <v>0.09752589397058516</v>
+        <v>0.0355911260766367</v>
       </c>
       <c r="T7">
-        <v>0.09752589397058516</v>
+        <v>0.03559112607663669</v>
       </c>
     </row>
   </sheetData>
